--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_4_5.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_4_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,1101 +518,1266 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_19</t>
+          <t>model_4_5_22</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9533579452184733</v>
+        <v>0.9722712050336478</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7732141303961109</v>
+        <v>0.6516830544873525</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7284398096545447</v>
+        <v>0.9431115325049955</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6262603907192595</v>
+        <v>0.4251215713904466</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7223857337590864</v>
+        <v>0.9083706011779118</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3118956350909836</v>
+        <v>0.1854225796193575</v>
       </c>
       <c r="H2" t="n">
-        <v>1.516518154294117</v>
+        <v>2.329197018495133</v>
       </c>
       <c r="I2" t="n">
-        <v>1.60479863859165</v>
+        <v>0.4229394702407696</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3354164473885163</v>
+        <v>0.7082266238582978</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9701075429900829</v>
+        <v>0.5655830470495337</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6356260292714854</v>
+        <v>0.6891164148171613</v>
       </c>
       <c r="M2" t="n">
-        <v>0.55847617235741</v>
+        <v>0.4306072219777062</v>
       </c>
       <c r="N2" t="n">
-        <v>1.030254305804233</v>
+        <v>1.01798624538358</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5822516592197162</v>
+        <v>0.4489390628971306</v>
       </c>
       <c r="P2" t="n">
-        <v>124.3301733000895</v>
+        <v>125.3702356891927</v>
       </c>
       <c r="Q2" t="n">
-        <v>198.6815986170497</v>
+        <v>199.7216610061529</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_18</t>
+          <t>model_4_5_21</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9531655200204537</v>
+        <v>0.9727483614183738</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7728591978966316</v>
+        <v>0.6509028144125306</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7284244305870402</v>
+        <v>0.943939833983738</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6197903368965678</v>
+        <v>0.4415398460170014</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7215418943170901</v>
+        <v>0.9105078700995448</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3131823832761771</v>
+        <v>0.1822318326775913</v>
       </c>
       <c r="H3" t="n">
-        <v>1.518891589552449</v>
+        <v>2.334414487468143</v>
       </c>
       <c r="I3" t="n">
-        <v>1.604889521966575</v>
+        <v>0.4167814314669215</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3412230635825991</v>
+        <v>0.6879999835293725</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9730562927745871</v>
+        <v>0.5523907410363885</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6446016503690017</v>
+        <v>0.6811215455511314</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5596270037053047</v>
+        <v>0.426886205771036</v>
       </c>
       <c r="N3" t="n">
-        <v>1.030379122148895</v>
+        <v>1.017676738539433</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5834514838406402</v>
+        <v>0.4450596353269772</v>
       </c>
       <c r="P3" t="n">
-        <v>124.3219391279384</v>
+        <v>125.404951193174</v>
       </c>
       <c r="Q3" t="n">
-        <v>198.6733644448987</v>
+        <v>199.7563765101342</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_17</t>
+          <t>model_4_5_20</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9529406557293963</v>
+        <v>0.9732472205287728</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7724539018930002</v>
+        <v>0.6500045785852074</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7283919516011685</v>
+        <v>0.9448690305651885</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6124828231882478</v>
+        <v>0.4592942144034003</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7205760555289924</v>
+        <v>0.9128392461751198</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3146860518258823</v>
+        <v>0.178895959509319</v>
       </c>
       <c r="H4" t="n">
-        <v>1.521601805794948</v>
+        <v>2.340420994581448</v>
       </c>
       <c r="I4" t="n">
-        <v>1.605081458171375</v>
+        <v>0.4098732842234992</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3477812667444332</v>
+        <v>0.6661273305382894</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9764313624579042</v>
+        <v>0.5380003073808943</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6545565673856611</v>
+        <v>0.67225306609802</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5609688510299679</v>
+        <v>0.4229609432433673</v>
       </c>
       <c r="N4" t="n">
-        <v>1.030524980067419</v>
+        <v>1.017353154251607</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5848504563839211</v>
+        <v>0.4409672662470919</v>
       </c>
       <c r="P4" t="n">
-        <v>124.3123595960468</v>
+        <v>125.4419017478271</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.6637849130071</v>
+        <v>199.7933270647874</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_16</t>
+          <t>model_4_5_19</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9526770416353686</v>
+        <v>0.9737630019737719</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7719901202574417</v>
+        <v>0.6489693118955051</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7283359596380226</v>
+        <v>0.9459119482790718</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6042166423610389</v>
+        <v>0.4784208276022957</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7194672302270518</v>
+        <v>0.9153760449853624</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3164488404864771</v>
+        <v>0.1754469266116549</v>
       </c>
       <c r="H5" t="n">
-        <v>1.524703115727446</v>
+        <v>2.347343827702453</v>
       </c>
       <c r="I5" t="n">
-        <v>1.605412345501047</v>
+        <v>0.4021196729058225</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3551998355492472</v>
+        <v>0.6425641282722721</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9803060905251473</v>
+        <v>0.5223419005890473</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6655868621790986</v>
+        <v>0.6624233201371265</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5625378569362929</v>
+        <v>0.4188638521186269</v>
       </c>
       <c r="N5" t="n">
-        <v>1.030695972993275</v>
+        <v>1.01701859331431</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5864862581199684</v>
+        <v>0.4366957534710235</v>
       </c>
       <c r="P5" t="n">
-        <v>124.3011873837924</v>
+        <v>125.4808373885626</v>
       </c>
       <c r="Q5" t="n">
-        <v>198.6526127007527</v>
+        <v>199.8322627055228</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_15</t>
+          <t>model_4_5_18</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9523672020745977</v>
+        <v>0.974288728007766</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7714582645304369</v>
+        <v>0.6477750194366685</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7282504481944505</v>
+        <v>0.9470826499052551</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5948508826887494</v>
+        <v>0.4989421787995874</v>
       </c>
       <c r="F6" t="n">
-        <v>0.718192244710123</v>
+        <v>0.9181289856791011</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3185207390560326</v>
+        <v>0.1719313942015901</v>
       </c>
       <c r="H6" t="n">
-        <v>1.528259637422897</v>
+        <v>2.355330066873904</v>
       </c>
       <c r="I6" t="n">
-        <v>1.605917679688852</v>
+        <v>0.3934160472433547</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3636052326716438</v>
+        <v>0.6172826660496924</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9847614561802481</v>
+        <v>0.5053493566465236</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6778128093848353</v>
+        <v>0.6515348034693408</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5643764161054504</v>
+        <v>0.4146461071824865</v>
       </c>
       <c r="N6" t="n">
-        <v>1.030896950005666</v>
+        <v>1.0166775818328</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5884030885592991</v>
+        <v>0.4322984504010159</v>
       </c>
       <c r="P6" t="n">
-        <v>124.2881353826284</v>
+        <v>125.5213195053197</v>
       </c>
       <c r="Q6" t="n">
-        <v>198.6395606995886</v>
+        <v>199.8727448222799</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_14</t>
+          <t>model_4_5_17</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9520022621833364</v>
+        <v>0.9748149008102986</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7708469157847411</v>
+        <v>0.6463959639268021</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7281277525059172</v>
+        <v>0.9483969551070912</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5842191228136711</v>
+        <v>0.5208538568146402</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7167232473571084</v>
+        <v>0.9211071551237662</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3209610937892907</v>
+        <v>0.1684128742482515</v>
       </c>
       <c r="H7" t="n">
-        <v>1.532347729300368</v>
+        <v>2.364551817418347</v>
       </c>
       <c r="I7" t="n">
-        <v>1.606642756047316</v>
+        <v>0.3836447953486174</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3731468146667913</v>
+        <v>0.5902883782640034</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9898947853570536</v>
+        <v>0.4869665868063104</v>
       </c>
       <c r="L7" t="n">
-        <v>0.6913558135057484</v>
+        <v>0.6394764943882183</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5665342829779065</v>
+        <v>0.4103813765855507</v>
       </c>
       <c r="N7" t="n">
-        <v>1.031133667772971</v>
+        <v>1.016336280555482</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5906528202919159</v>
+        <v>0.4278521613933592</v>
       </c>
       <c r="P7" t="n">
-        <v>124.2728707326929</v>
+        <v>125.5626734593816</v>
       </c>
       <c r="Q7" t="n">
-        <v>198.6242960496531</v>
+        <v>199.9140987763419</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_13</t>
+          <t>model_4_5_16</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9515710645578297</v>
+        <v>0.9753284393101687</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7701426666683366</v>
+        <v>0.644803108574605</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7279568112354016</v>
+        <v>0.9498717645826278</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5721292632865442</v>
+        <v>0.5441230822760231</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7150262171417731</v>
+        <v>0.9243174635881926</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3238445142965358</v>
+        <v>0.1649788399349932</v>
       </c>
       <c r="H8" t="n">
-        <v>1.537057046384533</v>
+        <v>2.375203248492914</v>
       </c>
       <c r="I8" t="n">
-        <v>1.607652942105345</v>
+        <v>0.3726802683406739</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3839969831566101</v>
+        <v>0.5616216477551333</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9958249626309774</v>
+        <v>0.4671509373900725</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7063562899549976</v>
+        <v>0.6261333886695063</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5690733821718741</v>
+        <v>0.4061758731571746</v>
       </c>
       <c r="N8" t="n">
-        <v>1.031413363530056</v>
+        <v>1.016003174501512</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5933000141952305</v>
+        <v>0.4234676209774449</v>
       </c>
       <c r="P8" t="n">
-        <v>124.2549835450447</v>
+        <v>125.6038761122472</v>
       </c>
       <c r="Q8" t="n">
-        <v>198.6064088620049</v>
+        <v>199.9553014292074</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_12</t>
+          <t>model_4_5_15</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9510604185542274</v>
+        <v>0.9758119556468557</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7693294224225949</v>
+        <v>0.6429629419705155</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7277247770934514</v>
+        <v>0.9515252758621537</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5583527626501948</v>
+        <v>0.5686767247659054</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7130609432937784</v>
+        <v>0.9277635572097279</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3272592064739336</v>
+        <v>0.1617455639651789</v>
       </c>
       <c r="H9" t="n">
-        <v>1.542495214400453</v>
+        <v>2.387508451047649</v>
       </c>
       <c r="I9" t="n">
-        <v>1.609024159567796</v>
+        <v>0.3603871759900802</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3963608450169646</v>
+        <v>0.5313725681956643</v>
       </c>
       <c r="K9" t="n">
-        <v>1.00269250229238</v>
+        <v>0.4458799025918383</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7229556147442731</v>
+        <v>0.6113861384903969</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5720657361474585</v>
+        <v>0.4021760360404121</v>
       </c>
       <c r="N9" t="n">
-        <v>1.031744593370231</v>
+        <v>1.015689542283121</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5964197588745822</v>
+        <v>0.4192975025138176</v>
       </c>
       <c r="P9" t="n">
-        <v>124.2340054834832</v>
+        <v>125.6434615424622</v>
       </c>
       <c r="Q9" t="n">
-        <v>198.5854308004434</v>
+        <v>199.9948868594225</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_11</t>
+          <t>model_4_5_14</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9504542856502685</v>
+        <v>0.9762427620591693</v>
       </c>
       <c r="C10" t="n">
-        <v>0.768388252967579</v>
+        <v>0.6408376113926775</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7274173642968269</v>
+        <v>0.9533759167034147</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5426227339422831</v>
+        <v>0.5944026030293315</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7107810746643641</v>
+        <v>0.9314453587138017</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3313124199936918</v>
+        <v>0.1588647595023574</v>
       </c>
       <c r="H10" t="n">
-        <v>1.548788818879832</v>
+        <v>2.401720546407899</v>
       </c>
       <c r="I10" t="n">
-        <v>1.610840830991104</v>
+        <v>0.3466285164326295</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4104779206908033</v>
+        <v>0.499679342286382</v>
       </c>
       <c r="K10" t="n">
-        <v>1.010659375840953</v>
+        <v>0.4231539593893857</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7413216643001158</v>
+        <v>0.5951001680591819</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5755974461320097</v>
+        <v>0.3985784232774742</v>
       </c>
       <c r="N10" t="n">
-        <v>1.032137760659285</v>
+        <v>1.015410100285944</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6001018210648232</v>
+        <v>0.4155467319274764</v>
       </c>
       <c r="P10" t="n">
-        <v>124.2093869634341</v>
+        <v>125.6794040157373</v>
       </c>
       <c r="Q10" t="n">
-        <v>198.5608122803943</v>
+        <v>200.0308293326976</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_10</t>
+          <t>model_4_5_13</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9497331386708059</v>
+        <v>0.9765912648365026</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7672964348224793</v>
+        <v>0.6383844370862959</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7270141122178947</v>
+        <v>0.9554420633920343</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5246282578052706</v>
+        <v>0.6211265584112954</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7081293845725827</v>
+        <v>0.9353565512781881</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3361347331659348</v>
+        <v>0.1565343198256216</v>
       </c>
       <c r="H11" t="n">
-        <v>1.556089811843473</v>
+        <v>2.418124934290502</v>
       </c>
       <c r="I11" t="n">
-        <v>1.613223869486019</v>
+        <v>0.3312676704755609</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4266272479459737</v>
+        <v>0.4667565263406079</v>
       </c>
       <c r="K11" t="n">
-        <v>1.019925558715997</v>
+        <v>0.3990120984080844</v>
       </c>
       <c r="L11" t="n">
-        <v>0.7616316115855082</v>
+        <v>0.5771271090564045</v>
       </c>
       <c r="M11" t="n">
-        <v>0.5797712765961547</v>
+        <v>0.3956441833587618</v>
       </c>
       <c r="N11" t="n">
-        <v>1.032605531672991</v>
+        <v>1.015184044430377</v>
       </c>
       <c r="O11" t="n">
-        <v>0.604453340132847</v>
+        <v>0.4124875753407104</v>
       </c>
       <c r="P11" t="n">
-        <v>124.1804864156586</v>
+        <v>125.7089599940668</v>
       </c>
       <c r="Q11" t="n">
-        <v>198.5319117326188</v>
+        <v>200.0603853110271</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_9</t>
+          <t>model_4_5_12</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.948873494394204</v>
+        <v>0.9768193996086043</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7660271647496831</v>
+        <v>0.635555457804158</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7264940494954949</v>
+        <v>0.9577401856154785</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5040001084917358</v>
+        <v>0.6486186620432337</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7050407272133902</v>
+        <v>0.9394841014032185</v>
       </c>
       <c r="G12" t="n">
-        <v>0.34188317840187</v>
+        <v>0.1550087815541131</v>
       </c>
       <c r="H12" t="n">
-        <v>1.564577426664713</v>
+        <v>2.437042331776409</v>
       </c>
       <c r="I12" t="n">
-        <v>1.616297206368821</v>
+        <v>0.3141821936024605</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4451401922182205</v>
+        <v>0.4328873832852608</v>
       </c>
       <c r="K12" t="n">
-        <v>1.030718699293521</v>
+        <v>0.3735347690075378</v>
       </c>
       <c r="L12" t="n">
-        <v>0.7840778780592796</v>
+        <v>0.5573347655771748</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5847077717987593</v>
+        <v>0.3937115461275082</v>
       </c>
       <c r="N12" t="n">
-        <v>1.033163138771327</v>
+        <v>1.015036065118743</v>
       </c>
       <c r="O12" t="n">
-        <v>0.6095999921561804</v>
+        <v>0.4104726617414117</v>
       </c>
       <c r="P12" t="n">
-        <v>124.1465723677855</v>
+        <v>125.7285470169598</v>
       </c>
       <c r="Q12" t="n">
-        <v>198.4979976847458</v>
+        <v>200.0799723339201</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_8</t>
+          <t>model_4_5_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9478468385344174</v>
+        <v>0.976878549596496</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7645485242956875</v>
+        <v>0.6322970053805423</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7258286708352431</v>
+        <v>0.9602836385100646</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4803112601720306</v>
+        <v>0.6765674658160084</v>
       </c>
       <c r="F13" t="n">
-        <v>0.701436164110917</v>
+        <v>0.9438049667007139</v>
       </c>
       <c r="G13" t="n">
-        <v>0.348748430863578</v>
+        <v>0.1546132453127208</v>
       </c>
       <c r="H13" t="n">
-        <v>1.574465102189095</v>
+        <v>2.458831618136921</v>
       </c>
       <c r="I13" t="n">
-        <v>1.62022929511409</v>
+        <v>0.2952727965456128</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4663999922201852</v>
+        <v>0.3984556044050795</v>
       </c>
       <c r="K13" t="n">
-        <v>1.043314643667137</v>
+        <v>0.3468642004753462</v>
       </c>
       <c r="L13" t="n">
-        <v>0.8088685016438268</v>
+        <v>0.535573626480784</v>
       </c>
       <c r="M13" t="n">
-        <v>0.590549262012559</v>
+        <v>0.3932089079773255</v>
       </c>
       <c r="N13" t="n">
-        <v>1.033829077707405</v>
+        <v>1.01499769755903</v>
       </c>
       <c r="O13" t="n">
-        <v>0.6156901667019333</v>
+        <v>0.4099486252445713</v>
       </c>
       <c r="P13" t="n">
-        <v>124.1068088903452</v>
+        <v>125.7336569435443</v>
       </c>
       <c r="Q13" t="n">
-        <v>198.4582342073054</v>
+        <v>200.0850822605046</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_7</t>
+          <t>model_4_5_10</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.946618808704781</v>
+        <v>0.9767068391806996</v>
       </c>
       <c r="C14" t="n">
-        <v>0.762822695472019</v>
+        <v>0.6285496253589817</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7249849998365909</v>
+        <v>0.9630790714873452</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4530637202960549</v>
+        <v>0.7045812415735114</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6972238631736765</v>
+        <v>0.9482840735397237</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3569602719889143</v>
+        <v>0.1557614736538054</v>
       </c>
       <c r="H14" t="n">
-        <v>1.586005727479678</v>
+        <v>2.483890365596195</v>
       </c>
       <c r="I14" t="n">
-        <v>1.625215011423736</v>
+        <v>0.2744900440025175</v>
       </c>
       <c r="J14" t="n">
-        <v>0.4908535764759862</v>
+        <v>0.3639437827069742</v>
       </c>
       <c r="K14" t="n">
-        <v>1.058034293949861</v>
+        <v>0.3192168850216419</v>
       </c>
       <c r="L14" t="n">
-        <v>0.8362264998573338</v>
+        <v>0.5117111755295873</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5974615234380489</v>
+        <v>0.3946662813742838</v>
       </c>
       <c r="N14" t="n">
-        <v>1.034625637596899</v>
+        <v>1.015109077288195</v>
       </c>
       <c r="O14" t="n">
-        <v>0.6228966974066601</v>
+        <v>0.411468042044217</v>
       </c>
       <c r="P14" t="n">
-        <v>124.0602615726782</v>
+        <v>125.7188589138175</v>
       </c>
       <c r="Q14" t="n">
-        <v>198.4116868896385</v>
+        <v>200.0702842307777</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_6</t>
+          <t>model_4_5_9</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9451481584298631</v>
+        <v>0.9762260145937999</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7608053298057724</v>
+        <v>0.6242467737604871</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7239257262980445</v>
+        <v>0.9661236998174461</v>
       </c>
       <c r="E15" t="n">
-        <v>0.421682520981377</v>
+        <v>0.7321749159178945</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6922984432143058</v>
+        <v>0.9528713205086227</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3667945171490118</v>
+        <v>0.1589767498803972</v>
       </c>
       <c r="H15" t="n">
-        <v>1.599495860978983</v>
+        <v>2.512663554048138</v>
       </c>
       <c r="I15" t="n">
-        <v>1.631474841814903</v>
+        <v>0.2518546391530896</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5190169558116069</v>
+        <v>0.3299495087036254</v>
       </c>
       <c r="K15" t="n">
-        <v>1.075245898813255</v>
+        <v>0.2909020739283575</v>
       </c>
       <c r="L15" t="n">
-        <v>0.8663944367540156</v>
+        <v>0.4856299932429123</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6056356306798765</v>
+        <v>0.3987188857834517</v>
       </c>
       <c r="N15" t="n">
-        <v>1.035579572910359</v>
+        <v>1.015420963506724</v>
       </c>
       <c r="O15" t="n">
-        <v>0.6314187933165069</v>
+        <v>0.4156931742131307</v>
       </c>
       <c r="P15" t="n">
-        <v>124.0059069730119</v>
+        <v>125.6779946292429</v>
       </c>
       <c r="Q15" t="n">
-        <v>198.3573322899722</v>
+        <v>200.0294199462031</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_5</t>
+          <t>model_4_5_8</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9433853742621554</v>
+        <v>0.9753373075106798</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7584441329922</v>
+        <v>0.6193138816370495</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7226051070039884</v>
+        <v>0.9694005515248065</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3855166343078802</v>
+        <v>0.7587558568249646</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6865376253388105</v>
+        <v>0.9574973621522818</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3785822629953484</v>
+        <v>0.1649195382373409</v>
       </c>
       <c r="H16" t="n">
-        <v>1.615285194943653</v>
+        <v>2.545649826391446</v>
       </c>
       <c r="I16" t="n">
-        <v>1.639279108126924</v>
+        <v>0.227492760793644</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5514744019143235</v>
+        <v>0.2972028807198209</v>
       </c>
       <c r="K16" t="n">
-        <v>1.095376755020624</v>
+        <v>0.262347802458358</v>
       </c>
       <c r="L16" t="n">
-        <v>0.8996377056060516</v>
+        <v>0.4572773603449884</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6152903891621813</v>
+        <v>0.4061028665711939</v>
       </c>
       <c r="N16" t="n">
-        <v>1.036723000478602</v>
+        <v>1.015997422155235</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6414845748555086</v>
+        <v>0.4233915063499546</v>
       </c>
       <c r="P16" t="n">
-        <v>123.9426437804674</v>
+        <v>125.6045951421329</v>
       </c>
       <c r="Q16" t="n">
-        <v>198.2940690974277</v>
+        <v>199.9560204590932</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_4</t>
+          <t>model_4_5_7</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9412716119496753</v>
+        <v>0.9739173749813986</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7556781828708539</v>
+        <v>0.6136657314096405</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7209708955211713</v>
+        <v>0.9728728942075157</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3438440573300839</v>
+        <v>0.7836506314586485</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6798045176913683</v>
+        <v>0.9620728590325704</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3927170013118827</v>
+        <v>0.1744146335988326</v>
       </c>
       <c r="H17" t="n">
-        <v>1.633781116141124</v>
+        <v>2.58341903296947</v>
       </c>
       <c r="I17" t="n">
-        <v>1.648936563291687</v>
+        <v>0.2016774973600073</v>
       </c>
       <c r="J17" t="n">
-        <v>0.5888738837362177</v>
+        <v>0.2665335403635106</v>
       </c>
       <c r="K17" t="n">
-        <v>1.118905223513952</v>
+        <v>0.234105518861759</v>
       </c>
       <c r="L17" t="n">
-        <v>0.9362322284911994</v>
+        <v>0.4266945886553748</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6266713662773198</v>
+        <v>0.4176297805459191</v>
       </c>
       <c r="N17" t="n">
-        <v>1.038094089546157</v>
+        <v>1.016918459471525</v>
       </c>
       <c r="O17" t="n">
-        <v>0.6533500637283091</v>
+        <v>0.4354091449165852</v>
       </c>
       <c r="P17" t="n">
-        <v>123.8693320499027</v>
+        <v>125.4926397255543</v>
       </c>
       <c r="Q17" t="n">
-        <v>198.2207573668629</v>
+        <v>199.8440650425146</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_3</t>
+          <t>model_4_5_6</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9387368977307688</v>
+        <v>0.9718131217189039</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7524370851462296</v>
+        <v>0.6072029802258412</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7189613763165055</v>
+        <v>0.9764782022785998</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2958844221612009</v>
+        <v>0.8061160851131333</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6719467269036948</v>
+        <v>0.9664860028282627</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4096666469649963</v>
+        <v>0.1884857848543303</v>
       </c>
       <c r="H18" t="n">
-        <v>1.655454351549569</v>
+        <v>2.626635479893769</v>
       </c>
       <c r="I18" t="n">
-        <v>1.660811918364053</v>
+        <v>0.1748736977010873</v>
       </c>
       <c r="J18" t="n">
-        <v>0.631915750444845</v>
+        <v>0.2388570237239083</v>
       </c>
       <c r="K18" t="n">
-        <v>1.146363834404449</v>
+        <v>0.2068653607124978</v>
       </c>
       <c r="L18" t="n">
-        <v>0.9764814995304739</v>
+        <v>0.3940512787561057</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6400520658235518</v>
+        <v>0.4341494959738296</v>
       </c>
       <c r="N18" t="n">
-        <v>1.039738228498961</v>
+        <v>1.018283380506657</v>
       </c>
       <c r="O18" t="n">
-        <v>0.6673004073560908</v>
+        <v>0.4526321388307871</v>
       </c>
       <c r="P18" t="n">
-        <v>123.7848230123523</v>
+        <v>125.3374653737021</v>
       </c>
       <c r="Q18" t="n">
-        <v>198.1362483293126</v>
+        <v>199.6888906906624</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_2</t>
+          <t>model_4_5_5</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9356995024600787</v>
+        <v>0.9688378416962238</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7486407375833793</v>
+        <v>0.5998041880214527</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7165074404198634</v>
+        <v>0.9801228445774257</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2408408380735185</v>
+        <v>0.8254430657071262</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6628034862468268</v>
+        <v>0.9706096339081393</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4299777231260205</v>
+        <v>0.2083814960658967</v>
       </c>
       <c r="H19" t="n">
-        <v>1.680840545182922</v>
+        <v>2.67611123743282</v>
       </c>
       <c r="I19" t="n">
-        <v>1.675313576287892</v>
+        <v>0.1477774662334725</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6813151798008946</v>
+        <v>0.2150469770527103</v>
       </c>
       <c r="K19" t="n">
-        <v>1.178314378044393</v>
+        <v>0.1814122216430914</v>
       </c>
       <c r="L19" t="n">
-        <v>1.020706468866083</v>
+        <v>0.3596956214457269</v>
       </c>
       <c r="M19" t="n">
-        <v>0.6557268662530311</v>
+        <v>0.4564882211688454</v>
       </c>
       <c r="N19" t="n">
-        <v>1.041708430836706</v>
+        <v>1.02021329187272</v>
       </c>
       <c r="O19" t="n">
-        <v>0.683642516491163</v>
+        <v>0.4759218698048908</v>
       </c>
       <c r="P19" t="n">
-        <v>123.6880437566404</v>
+        <v>125.1367695270316</v>
       </c>
       <c r="Q19" t="n">
-        <v>198.0394690736007</v>
+        <v>199.4881948439918</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_1</t>
+          <t>model_4_5_4</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9320638556237685</v>
+        <v>0.9647680903078452</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7441987073773757</v>
+        <v>0.591313186457586</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7135299761577646</v>
+        <v>0.9836835661225974</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1779630073057241</v>
+        <v>0.8410890055420133</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6522115541855904</v>
+        <v>0.9743153793816363</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4542893102610415</v>
+        <v>0.2355959423394667</v>
       </c>
       <c r="H20" t="n">
-        <v>1.710544421624137</v>
+        <v>2.732890603987864</v>
       </c>
       <c r="I20" t="n">
-        <v>1.692909051486937</v>
+        <v>0.1213051467932959</v>
       </c>
       <c r="J20" t="n">
-        <v>0.7377455342292571</v>
+        <v>0.1957718214808562</v>
       </c>
       <c r="K20" t="n">
-        <v>1.215327292858097</v>
+        <v>0.1585384841370761</v>
       </c>
       <c r="L20" t="n">
-        <v>1.069278166255184</v>
+        <v>0.3243112352343692</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6740098740085649</v>
+        <v>0.4853822641377275</v>
       </c>
       <c r="N20" t="n">
-        <v>1.044066688244042</v>
+        <v>1.022853130611127</v>
       </c>
       <c r="O20" t="n">
-        <v>0.7027038697378934</v>
+        <v>0.5060459920018727</v>
       </c>
       <c r="P20" t="n">
-        <v>123.5780420732512</v>
+        <v>124.8912741000416</v>
       </c>
       <c r="Q20" t="n">
-        <v>197.9294673902114</v>
+        <v>199.2426994170019</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
+          <t>model_4_5_3</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.959341865259193</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.5815229587711319</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9870187037634203</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.8528204998899112</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9774946306556122</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.2718811342252728</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.798357901607036</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.0965099394498477</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.181319102051254</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.1389145354264363</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.2887106514212044</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.5214222226039784</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.026372844156199</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.5436202461130308</v>
+      </c>
+      <c r="P21" t="n">
+        <v>124.6047806294521</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>198.9562059464124</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>model_4_5_2</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9522508861769623</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.5701619017707481</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9899893734355284</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8607286101541428</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9800728420895406</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.3192985439991054</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.87432934208146</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.07442438304965018</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.171576634853307</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.1230005089514786</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.2532663024657327</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.5650650794369666</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.030972398155484</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.5891210697145676</v>
+      </c>
+      <c r="P22" t="n">
+        <v>124.2832574784991</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>198.6346827954593</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>model_4_5_1</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.943125565274722</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.5568860382596263</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9924795805748698</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.8650663078312608</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9820054004622629</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.3803196068906254</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.963105102510061</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.05591084358059498</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.166232769388371</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.1110717801035721</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.2188846239209773</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.6167005812309775</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.036891525227207</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.6429548017201735</v>
+      </c>
+      <c r="P23" t="n">
+        <v>123.9334866179974</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>198.2849119349577</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
           <t>model_4_5_0</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>0.9277204288854795</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.7390107839392743</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.7099403148626551</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.1066415130592834</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.6400176990067848</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.4833338248596216</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1.745236089542912</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1.714122335923322</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.8017537410891621</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1.257938038506242</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.122588321241023</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.6952221406569425</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1.046884046128338</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0.724819186492938</v>
-      </c>
-      <c r="P21" t="n">
-        <v>123.4540954305704</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>197.8055207475307</v>
+      <c r="B24" t="n">
+        <v>0.9315073718087702</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.5412701709411873</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9943996055600592</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.8659723728387699</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9832521116582646</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.4580105200943073</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.06752847917292</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.04163634497230727</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.1651165344953408</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.1033764473163898</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.1851743915258155</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.6767647450143272</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.044427650718636</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.7055760213057402</v>
+      </c>
+      <c r="P24" t="n">
+        <v>123.561726250987</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>197.9131515679473</v>
       </c>
     </row>
   </sheetData>

--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_4_5.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_4_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,606 +518,606 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_22</t>
+          <t>model_4_5_2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9722712050336478</v>
+        <v>0.9742937828831149</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6516830544873525</v>
+        <v>0.8047108746122621</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9431115325049955</v>
+        <v>0.8421189587109554</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4251215713904466</v>
+        <v>0.9704404452475629</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9083706011779118</v>
+        <v>0.9538688652570414</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1854225796193575</v>
+        <v>0.1718975922268567</v>
       </c>
       <c r="H2" t="n">
-        <v>2.329197018495133</v>
+        <v>1.305899280691542</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4229394702407696</v>
+        <v>0.5094888236137399</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7082266238582978</v>
+        <v>0.2133288674373372</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5655830470495337</v>
+        <v>0.361408513138332</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6891164148171613</v>
+        <v>0.219589900934147</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4306072219777062</v>
+        <v>0.4146053451498868</v>
       </c>
       <c r="N2" t="n">
-        <v>1.01798624538358</v>
+        <v>1.016674302994736</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4489390628971306</v>
+        <v>0.4322559530442994</v>
       </c>
       <c r="P2" t="n">
-        <v>125.3702356891927</v>
+        <v>125.521712747032</v>
       </c>
       <c r="Q2" t="n">
-        <v>199.7216610061529</v>
+        <v>199.8731380639922</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_21</t>
+          <t>model_4_5_3</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9727483614183738</v>
+        <v>0.9755125059276726</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6509028144125306</v>
+        <v>0.8046544618218201</v>
       </c>
       <c r="D3" t="n">
-        <v>0.943939833983738</v>
+        <v>0.8430763553367153</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4415398460170014</v>
+        <v>0.9678126112013844</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9105078700995448</v>
+        <v>0.9528556643784503</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1822318326775913</v>
+        <v>0.1637479856161959</v>
       </c>
       <c r="H3" t="n">
-        <v>2.334414487468143</v>
+        <v>1.306276513280984</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4167814314669215</v>
+        <v>0.5063992640528983</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6879999835293725</v>
+        <v>0.2322937289036059</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5523907410363885</v>
+        <v>0.3693463066715368</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6811215455511314</v>
+        <v>0.223683949573222</v>
       </c>
       <c r="M3" t="n">
-        <v>0.426886205771036</v>
+        <v>0.4046578624173709</v>
       </c>
       <c r="N3" t="n">
-        <v>1.017676738539433</v>
+        <v>1.015883779938807</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4450596353269772</v>
+        <v>0.4218849853777323</v>
       </c>
       <c r="P3" t="n">
-        <v>125.404951193174</v>
+        <v>125.6188534122458</v>
       </c>
       <c r="Q3" t="n">
-        <v>199.7563765101342</v>
+        <v>199.9702787292061</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_20</t>
+          <t>model_4_5_1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9732472205287728</v>
+        <v>0.9727132712313995</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6500045785852074</v>
+        <v>0.8045577042420039</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9448690305651885</v>
+        <v>0.840666163985058</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4592942144034003</v>
+        <v>0.9733676025120334</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9128392461751198</v>
+        <v>0.9549178424723959</v>
       </c>
       <c r="G4" t="n">
-        <v>0.178895959509319</v>
+        <v>0.1824664809194648</v>
       </c>
       <c r="H4" t="n">
-        <v>2.340420994581448</v>
+        <v>1.306923531662743</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4098732842234992</v>
+        <v>0.5141770538775282</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6661273305382894</v>
+        <v>0.192203815004368</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5380003073808943</v>
+        <v>0.3531904344409481</v>
       </c>
       <c r="L4" t="n">
-        <v>0.67225306609802</v>
+        <v>0.2148274322292795</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4229609432433673</v>
+        <v>0.4271609543479656</v>
       </c>
       <c r="N4" t="n">
-        <v>1.017353154251607</v>
+        <v>1.017699499741795</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4409672662470919</v>
+        <v>0.4453460805196345</v>
       </c>
       <c r="P4" t="n">
-        <v>125.4419017478271</v>
+        <v>125.402377578046</v>
       </c>
       <c r="Q4" t="n">
-        <v>199.7933270647874</v>
+        <v>199.7538028950063</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_19</t>
+          <t>model_4_5_4</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9737630019737719</v>
+        <v>0.9764481410165727</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6489693118955051</v>
+        <v>0.8044444720580235</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9459119482790718</v>
+        <v>0.8436741884672229</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4784208276022957</v>
+        <v>0.9654659501694464</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9153760449853624</v>
+        <v>0.9518979363474828</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1754469266116549</v>
+        <v>0.1574913894685172</v>
       </c>
       <c r="H5" t="n">
-        <v>2.347343827702453</v>
+        <v>1.307680715798407</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4021196729058225</v>
+        <v>0.5044700311577216</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6425641282722721</v>
+        <v>0.2492293879280842</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5223419005890473</v>
+        <v>0.3768495052291165</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6624233201371265</v>
+        <v>0.2268551655509666</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4188638521186269</v>
+        <v>0.3968518482614352</v>
       </c>
       <c r="N5" t="n">
-        <v>1.01701859331431</v>
+        <v>1.015276881502764</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4366957534710235</v>
+        <v>0.4137466530385016</v>
       </c>
       <c r="P5" t="n">
-        <v>125.4808373885626</v>
+        <v>125.6967689845041</v>
       </c>
       <c r="Q5" t="n">
-        <v>199.8322627055228</v>
+        <v>200.0481943014644</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_18</t>
+          <t>model_4_5_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.974288728007766</v>
+        <v>0.9771621456854933</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6477750194366685</v>
+        <v>0.8041245986938218</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9470826499052551</v>
+        <v>0.8440121573969059</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4989421787995874</v>
+        <v>0.9633767771768323</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9181289856791011</v>
+        <v>0.9510052820334223</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1719313942015901</v>
+        <v>0.1527168369597561</v>
       </c>
       <c r="H6" t="n">
-        <v>2.355330066873904</v>
+        <v>1.309819710457705</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3934160472433547</v>
+        <v>0.5033793910720192</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6172826660496924</v>
+        <v>0.2643067770202955</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5053493566465236</v>
+        <v>0.3838428920206777</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6515348034693408</v>
+        <v>0.2293238050396756</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4146461071824865</v>
+        <v>0.3907900164535375</v>
       </c>
       <c r="N6" t="n">
-        <v>1.0166775818328</v>
+        <v>1.01481374333914</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4322984504010159</v>
+        <v>0.4074267565008199</v>
       </c>
       <c r="P6" t="n">
-        <v>125.5213195053197</v>
+        <v>125.7583396222959</v>
       </c>
       <c r="Q6" t="n">
-        <v>199.8727448222799</v>
+        <v>200.1097649392561</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_17</t>
+          <t>model_4_5_0</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9748149008102986</v>
+        <v>0.9706693827008048</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6463959639268021</v>
+        <v>0.8041228644129249</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9483969551070912</v>
+        <v>0.8385327624219754</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5208538568146402</v>
+        <v>0.9765997007823305</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9211071551237662</v>
+        <v>0.9559671420932041</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1684128742482515</v>
+        <v>0.1961339729347926</v>
       </c>
       <c r="H7" t="n">
-        <v>2.364551817418347</v>
+        <v>1.309831307602048</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3836447953486174</v>
+        <v>0.52106163130238</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5902883782640034</v>
+        <v>0.1688780284956315</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4869665868063104</v>
+        <v>0.3449698298990057</v>
       </c>
       <c r="L7" t="n">
-        <v>0.6394764943882183</v>
+        <v>0.2088618952610646</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4103813765855507</v>
+        <v>0.4428701535831836</v>
       </c>
       <c r="N7" t="n">
-        <v>1.016336280555482</v>
+        <v>1.019025265275154</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4278521613933592</v>
+        <v>0.4617240528888212</v>
       </c>
       <c r="P7" t="n">
-        <v>125.5626734593816</v>
+        <v>125.2579146357479</v>
       </c>
       <c r="Q7" t="n">
-        <v>199.9140987763419</v>
+        <v>199.6093399527081</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_16</t>
+          <t>model_4_5_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9753284393101687</v>
+        <v>0.9777026207533488</v>
       </c>
       <c r="C8" t="n">
-        <v>0.644803108574605</v>
+        <v>0.8037290372760174</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9498717645826278</v>
+        <v>0.8441637456806235</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5441230822760231</v>
+        <v>0.9615201134319822</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9243174635881926</v>
+        <v>0.9501813110927773</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1649788399349932</v>
+        <v>0.1491026776923477</v>
       </c>
       <c r="H8" t="n">
-        <v>2.375203248492914</v>
+        <v>1.312464831479955</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3726802683406739</v>
+        <v>0.5028902092442694</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5616216477551333</v>
+        <v>0.2777061660577163</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4671509373900725</v>
+        <v>0.3902981876509928</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6261333886695063</v>
+        <v>0.2312544622240924</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4061758731571746</v>
+        <v>0.3861381588141059</v>
       </c>
       <c r="N8" t="n">
-        <v>1.016003174501512</v>
+        <v>1.014463164916747</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4234676209774449</v>
+        <v>0.4025768596510049</v>
       </c>
       <c r="P8" t="n">
-        <v>125.6038761122472</v>
+        <v>125.8062401966723</v>
       </c>
       <c r="Q8" t="n">
-        <v>199.9553014292074</v>
+        <v>200.1576655136326</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_15</t>
+          <t>model_4_5_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9758119556468557</v>
+        <v>0.9781073035755559</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6429629419705155</v>
+        <v>0.8032844333855437</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9515252758621537</v>
+        <v>0.8441830551107625</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5686767247659054</v>
+        <v>0.9598710380831644</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9277635572097279</v>
+        <v>0.9494257505136117</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1617455639651789</v>
+        <v>0.1463965617968561</v>
       </c>
       <c r="H9" t="n">
-        <v>2.387508451047649</v>
+        <v>1.315437899742766</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3603871759900802</v>
+        <v>0.502827896893363</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5313725681956643</v>
+        <v>0.2896074067708605</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4458799025918383</v>
+        <v>0.396217530997383</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6113861384903969</v>
+        <v>0.2327654793547095</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4021760360404121</v>
+        <v>0.3826180364238677</v>
       </c>
       <c r="N9" t="n">
-        <v>1.015689542283121</v>
+        <v>1.014200667950991</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4192975025138176</v>
+        <v>0.3989068783629562</v>
       </c>
       <c r="P9" t="n">
-        <v>125.6434615424622</v>
+        <v>125.8428723254497</v>
       </c>
       <c r="Q9" t="n">
-        <v>199.9948868594225</v>
+        <v>200.19429764241</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_14</t>
+          <t>model_4_5_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9762427620591693</v>
+        <v>0.9784061272991996</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6408376113926775</v>
+        <v>0.8028113716232201</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9533759167034147</v>
+        <v>0.8441107123613633</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5944026030293315</v>
+        <v>0.958406914135064</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9314453587138017</v>
+        <v>0.9487364193143252</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1588647595023574</v>
+        <v>0.1443983261808932</v>
       </c>
       <c r="H10" t="n">
-        <v>2.401720546407899</v>
+        <v>1.318601265925672</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3466285164326295</v>
+        <v>0.503061350017231</v>
       </c>
       <c r="J10" t="n">
-        <v>0.499679342286382</v>
+        <v>0.300173868486946</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4231539593893857</v>
+        <v>0.4016180086830533</v>
       </c>
       <c r="L10" t="n">
-        <v>0.5951001680591819</v>
+        <v>0.2339537092976468</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3985784232774742</v>
+        <v>0.3799977976000561</v>
       </c>
       <c r="N10" t="n">
-        <v>1.015410100285944</v>
+        <v>1.014006836346465</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4155467319274764</v>
+        <v>0.396175090547773</v>
       </c>
       <c r="P10" t="n">
-        <v>125.6794040157373</v>
+        <v>125.8703592882713</v>
       </c>
       <c r="Q10" t="n">
-        <v>200.0308293326976</v>
+        <v>200.2217846052316</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_13</t>
+          <t>model_4_5_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9765912648365026</v>
+        <v>0.9786224611169616</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6383844370862959</v>
+        <v>0.8023258320370474</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9554420633920343</v>
+        <v>0.8439756800483185</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6211265584112954</v>
+        <v>0.9571064470929995</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9353565512781881</v>
+        <v>0.9481096735896494</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1565343198256216</v>
+        <v>0.1429517009453936</v>
       </c>
       <c r="H11" t="n">
-        <v>2.418124934290502</v>
+        <v>1.321848071374113</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3312676704755609</v>
+        <v>0.5034971050246804</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4667565263406079</v>
+        <v>0.3095592318168965</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3990120984080844</v>
+        <v>0.4065281684207884</v>
       </c>
       <c r="L11" t="n">
-        <v>0.5771271090564045</v>
+        <v>0.234887483945397</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3956441833587618</v>
+        <v>0.3780895409098135</v>
       </c>
       <c r="N11" t="n">
-        <v>1.015184044430377</v>
+        <v>1.013866511707917</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4124875753407104</v>
+        <v>0.3941855954195909</v>
       </c>
       <c r="P11" t="n">
-        <v>125.7089599940668</v>
+        <v>125.8904969228023</v>
       </c>
       <c r="Q11" t="n">
-        <v>200.0603853110271</v>
+        <v>200.2419222397625</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_12</t>
+          <t>model_4_5_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9768193996086043</v>
+        <v>0.9787749469272492</v>
       </c>
       <c r="C12" t="n">
-        <v>0.635555457804158</v>
+        <v>0.8018396970345174</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9577401856154785</v>
+        <v>0.8438007109374239</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6486186620432337</v>
+        <v>0.9559508445670841</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9394841014032185</v>
+        <v>0.9475413914997876</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1550087815541131</v>
+        <v>0.1419320276298676</v>
       </c>
       <c r="H12" t="n">
-        <v>2.437042331776409</v>
+        <v>1.325098858374478</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3141821936024605</v>
+        <v>0.5040617377744429</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4328873832852608</v>
+        <v>0.317899119887807</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3735347690075378</v>
+        <v>0.4109803022407016</v>
       </c>
       <c r="L12" t="n">
-        <v>0.5573347655771748</v>
+        <v>0.2356284374351434</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3937115461275082</v>
+        <v>0.3767386728620618</v>
       </c>
       <c r="N12" t="n">
-        <v>1.015036065118743</v>
+        <v>1.013767601993136</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4104726617414117</v>
+        <v>0.3927772181223639</v>
       </c>
       <c r="P12" t="n">
-        <v>125.7285470169598</v>
+        <v>125.904814029294</v>
       </c>
       <c r="Q12" t="n">
-        <v>200.0799723339201</v>
+        <v>200.2562393462542</v>
       </c>
     </row>
     <row r="13">
@@ -1127,657 +1127,767 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.976878549596496</v>
+        <v>0.9788783094841985</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6322970053805423</v>
+        <v>0.80136192740801</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9602836385100646</v>
+        <v>0.8436020090339749</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6765674658160084</v>
+        <v>0.9549236490165948</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9438049667007139</v>
+        <v>0.9470273326044718</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1546132453127208</v>
+        <v>0.1412408417356063</v>
       </c>
       <c r="H13" t="n">
-        <v>2.458831618136921</v>
+        <v>1.328293706066859</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2952727965456128</v>
+        <v>0.5047029572534347</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3984556044050795</v>
+        <v>0.3253123054130213</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3468642004753462</v>
+        <v>0.4150076313332281</v>
       </c>
       <c r="L13" t="n">
-        <v>0.535573626480784</v>
+        <v>0.2362140435708108</v>
       </c>
       <c r="M13" t="n">
-        <v>0.3932089079773255</v>
+        <v>0.3758202252881107</v>
       </c>
       <c r="N13" t="n">
-        <v>1.01499769755903</v>
+        <v>1.01370055601025</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4099486252445713</v>
+        <v>0.3918196703337412</v>
       </c>
       <c r="P13" t="n">
-        <v>125.7336569435443</v>
+        <v>125.9145774966553</v>
       </c>
       <c r="Q13" t="n">
-        <v>200.0850822605046</v>
+        <v>200.2660028136156</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_10</t>
+          <t>model_4_5_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9767068391806996</v>
+        <v>0.9789439537027572</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6285496253589817</v>
+        <v>0.8008990286669929</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9630790714873452</v>
+        <v>0.8433907219078668</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7045812415735114</v>
+        <v>0.9540094313736946</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9482840735397237</v>
+        <v>0.946562709599573</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1557614736538054</v>
+        <v>0.1408018785438409</v>
       </c>
       <c r="H14" t="n">
-        <v>2.483890365596195</v>
+        <v>1.331389112079494</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2744900440025175</v>
+        <v>0.5053847897802958</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3639437827069742</v>
+        <v>0.3319101387019356</v>
       </c>
       <c r="K14" t="n">
-        <v>0.3192168850216419</v>
+        <v>0.4186476612242327</v>
       </c>
       <c r="L14" t="n">
-        <v>0.5117111755295873</v>
+        <v>0.2366791328016631</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3946662813742838</v>
+        <v>0.3752357639456038</v>
       </c>
       <c r="N14" t="n">
-        <v>1.015109077288195</v>
+        <v>1.01365797597659</v>
       </c>
       <c r="O14" t="n">
-        <v>0.411468042044217</v>
+        <v>0.391210327261882</v>
       </c>
       <c r="P14" t="n">
-        <v>125.7188589138175</v>
+        <v>125.920802986833</v>
       </c>
       <c r="Q14" t="n">
-        <v>200.0702842307777</v>
+        <v>200.2722283037933</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_9</t>
+          <t>model_4_5_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9762260145937999</v>
+        <v>0.9789810951522739</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6242467737604871</v>
+        <v>0.8004554969606911</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9661236998174461</v>
+        <v>0.8431757793112795</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7321749159178945</v>
+        <v>0.9531957831247249</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9528713205086227</v>
+        <v>0.9461437166863744</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1589767498803972</v>
+        <v>0.1405535134999015</v>
       </c>
       <c r="H15" t="n">
-        <v>2.512663554048138</v>
+        <v>1.33435501064181</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2518546391530896</v>
+        <v>0.5060784186655983</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3299495087036254</v>
+        <v>0.3377821709736935</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2909020739283575</v>
+        <v>0.4219302079601486</v>
       </c>
       <c r="L15" t="n">
-        <v>0.4856299932429123</v>
+        <v>0.2370477534739251</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3987188857834517</v>
+        <v>0.3749046725501051</v>
       </c>
       <c r="N15" t="n">
-        <v>1.015420963506724</v>
+        <v>1.013633884225552</v>
       </c>
       <c r="O15" t="n">
-        <v>0.4156931742131307</v>
+        <v>0.3908651406202232</v>
       </c>
       <c r="P15" t="n">
-        <v>125.6779946292429</v>
+        <v>125.9243339674429</v>
       </c>
       <c r="Q15" t="n">
-        <v>200.0294199462031</v>
+        <v>200.2757592844032</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_8</t>
+          <t>model_4_5_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9753373075106798</v>
+        <v>0.9789967640077015</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6193138816370495</v>
+        <v>0.8000343907495991</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9694005515248065</v>
+        <v>0.8429627720436783</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7587558568249646</v>
+        <v>0.9524706428664726</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9574973621522818</v>
+        <v>0.9457658579698668</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1649195382373409</v>
+        <v>0.1404487357915092</v>
       </c>
       <c r="H16" t="n">
-        <v>2.545649826391446</v>
+        <v>1.337170949814397</v>
       </c>
       <c r="I16" t="n">
-        <v>0.227492760793644</v>
+        <v>0.506765802162092</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2972028807198209</v>
+        <v>0.343015448379992</v>
       </c>
       <c r="K16" t="n">
-        <v>0.262347802458358</v>
+        <v>0.4248904940591208</v>
       </c>
       <c r="L16" t="n">
-        <v>0.4572773603449884</v>
+        <v>0.237339751845815</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4061028665711939</v>
+        <v>0.3747649073639489</v>
       </c>
       <c r="N16" t="n">
-        <v>1.015997422155235</v>
+        <v>1.013623720643653</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4233915063499546</v>
+        <v>0.3907194253407385</v>
       </c>
       <c r="P16" t="n">
-        <v>125.6045951421329</v>
+        <v>125.9258254532017</v>
       </c>
       <c r="Q16" t="n">
-        <v>199.9560204590932</v>
+        <v>200.2772507701619</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_7</t>
+          <t>model_4_5_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9739173749813986</v>
+        <v>0.9789966432714411</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6136657314096405</v>
+        <v>0.7996374365376107</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9728728942075157</v>
+        <v>0.8427562456987447</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7836506314586485</v>
+        <v>0.951824559198431</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9620728590325704</v>
+        <v>0.9454257495171133</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1744146335988326</v>
+        <v>0.1404495431554385</v>
       </c>
       <c r="H17" t="n">
-        <v>2.58341903296947</v>
+        <v>1.33982538445777</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2016774973600073</v>
+        <v>0.5074322714459678</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2665335403635106</v>
+        <v>0.3476781808983738</v>
       </c>
       <c r="K17" t="n">
-        <v>0.234105518861759</v>
+        <v>0.4275550305137364</v>
       </c>
       <c r="L17" t="n">
-        <v>0.4266945886553748</v>
+        <v>0.2375745097776598</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4176297805459191</v>
+        <v>0.3747659845229267</v>
       </c>
       <c r="N17" t="n">
-        <v>1.016918459471525</v>
+        <v>1.013623798959065</v>
       </c>
       <c r="O17" t="n">
-        <v>0.4354091449165852</v>
+        <v>0.3907205483566041</v>
       </c>
       <c r="P17" t="n">
-        <v>125.4926397255543</v>
+        <v>125.9258139563149</v>
       </c>
       <c r="Q17" t="n">
-        <v>199.8440650425146</v>
+        <v>200.2772392732751</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_6</t>
+          <t>model_4_5_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9718131217189039</v>
+        <v>0.9789849878643534</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6072029802258412</v>
+        <v>0.7992655664269641</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9764782022785998</v>
+        <v>0.8425583512709418</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8061160851131333</v>
+        <v>0.9512477797003638</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9664860028282627</v>
+        <v>0.9451193236109897</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1884857848543303</v>
+        <v>0.140527482916302</v>
       </c>
       <c r="H18" t="n">
-        <v>2.626635479893769</v>
+        <v>1.342312081599969</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1748736977010873</v>
+        <v>0.5080708851667656</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2388570237239083</v>
+        <v>0.3518407509409291</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2068653607124978</v>
+        <v>0.4299556853369114</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3940512787561057</v>
+        <v>0.2377604461205013</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4341494959738296</v>
+        <v>0.3748699546726864</v>
       </c>
       <c r="N18" t="n">
-        <v>1.018283380506657</v>
+        <v>1.013631359223122</v>
       </c>
       <c r="O18" t="n">
-        <v>0.4526321388307871</v>
+        <v>0.3908289447308869</v>
       </c>
       <c r="P18" t="n">
-        <v>125.3374653737021</v>
+        <v>125.9247044027837</v>
       </c>
       <c r="Q18" t="n">
-        <v>199.6888906906624</v>
+        <v>200.276129719744</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_5</t>
+          <t>model_4_5_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9688378416962238</v>
+        <v>0.9789652318482042</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5998041880214527</v>
+        <v>0.7989190169415061</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9801228445774257</v>
+        <v>0.8423706174007338</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8254430657071262</v>
+        <v>0.9507332706080125</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9706096339081393</v>
+        <v>0.9448436627312405</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2083814960658967</v>
+        <v>0.1406595914872605</v>
       </c>
       <c r="H19" t="n">
-        <v>2.67611123743282</v>
+        <v>1.344629459604939</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1477774662334725</v>
+        <v>0.5086767103368034</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2150469770527103</v>
+        <v>0.3555539206038938</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1814122216430914</v>
+        <v>0.4321153154703485</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3596956214457269</v>
+        <v>0.2379101634636727</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4564882211688454</v>
+        <v>0.3750461191470463</v>
       </c>
       <c r="N19" t="n">
-        <v>1.02021329187272</v>
+        <v>1.0136441739363</v>
       </c>
       <c r="O19" t="n">
-        <v>0.4759218698048908</v>
+        <v>0.3910126088916311</v>
       </c>
       <c r="P19" t="n">
-        <v>125.1367695270316</v>
+        <v>125.9228251047263</v>
       </c>
       <c r="Q19" t="n">
-        <v>199.4881948439918</v>
+        <v>200.2742504216865</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_4</t>
+          <t>model_4_5_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9647680903078452</v>
+        <v>0.9789399448638659</v>
       </c>
       <c r="C20" t="n">
-        <v>0.591313186457586</v>
+        <v>0.798597388754035</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9836835661225974</v>
+        <v>0.8421946811959808</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8410890055420133</v>
+        <v>0.95027332387701</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9743153793816363</v>
+        <v>0.94459555114214</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2355959423394667</v>
+        <v>0.1408286856679661</v>
       </c>
       <c r="H20" t="n">
-        <v>2.732890603987864</v>
+        <v>1.34678018877552</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1213051467932959</v>
+        <v>0.5092444639395084</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1957718214808562</v>
+        <v>0.358873318207411</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1585384841370761</v>
+        <v>0.4340591141869605</v>
       </c>
       <c r="L20" t="n">
-        <v>0.3243112352343692</v>
+        <v>0.2380279553455895</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4853822641377275</v>
+        <v>0.3752714826202041</v>
       </c>
       <c r="N20" t="n">
-        <v>1.022853130611127</v>
+        <v>1.013660576304519</v>
       </c>
       <c r="O20" t="n">
-        <v>0.5060459920018727</v>
+        <v>0.3912475665544078</v>
       </c>
       <c r="P20" t="n">
-        <v>124.8912741000416</v>
+        <v>125.9204222451435</v>
       </c>
       <c r="Q20" t="n">
-        <v>199.2426994170019</v>
+        <v>200.2718475621038</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_3</t>
+          <t>model_4_5_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.959341865259193</v>
+        <v>0.9789110883193909</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5815229587711319</v>
+        <v>0.7983000906845552</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9870187037634203</v>
+        <v>0.8420305183905104</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8528204998899112</v>
+        <v>0.9498621143514598</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9774946306556122</v>
+        <v>0.9443723693149372</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2718811342252728</v>
+        <v>0.1410216495137423</v>
       </c>
       <c r="H21" t="n">
-        <v>2.798357901607036</v>
+        <v>1.348768222335064</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0965099394498477</v>
+        <v>0.5097742242828495</v>
       </c>
       <c r="J21" t="n">
-        <v>0.181319102051254</v>
+        <v>0.3618409834209013</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1389145354264363</v>
+        <v>0.4358076038518754</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2887106514212044</v>
+        <v>0.2381268078846484</v>
       </c>
       <c r="M21" t="n">
-        <v>0.5214222226039784</v>
+        <v>0.3755284936109939</v>
       </c>
       <c r="N21" t="n">
-        <v>1.026372844156199</v>
+        <v>1.013679294063098</v>
       </c>
       <c r="O21" t="n">
-        <v>0.5436202461130308</v>
+        <v>0.3915155190351617</v>
       </c>
       <c r="P21" t="n">
-        <v>124.6047806294521</v>
+        <v>125.9176837154796</v>
       </c>
       <c r="Q21" t="n">
-        <v>198.9562059464124</v>
+        <v>200.2691090324398</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_2</t>
+          <t>model_4_5_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9522508861769623</v>
+        <v>0.9788803261630291</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5701619017707481</v>
+        <v>0.7980261097573396</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9899893734355284</v>
+        <v>0.8418784998957927</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8607286101541428</v>
+        <v>0.9494946327310592</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9800728420895406</v>
+        <v>0.9441718062281482</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3192985439991054</v>
+        <v>0.1412273561949806</v>
       </c>
       <c r="H22" t="n">
-        <v>2.87432934208146</v>
+        <v>1.35060033405692</v>
       </c>
       <c r="I22" t="n">
-        <v>0.07442438304965018</v>
+        <v>0.510264794419763</v>
       </c>
       <c r="J22" t="n">
-        <v>0.171576634853307</v>
+        <v>0.3644930679512897</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1230005089514786</v>
+        <v>0.4373788898692415</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2532663024657327</v>
+        <v>0.2382018573958547</v>
       </c>
       <c r="M22" t="n">
-        <v>0.5650650794369666</v>
+        <v>0.3758022833818078</v>
       </c>
       <c r="N22" t="n">
-        <v>1.030972398155484</v>
+        <v>1.013699247894251</v>
       </c>
       <c r="O22" t="n">
-        <v>0.5891210697145676</v>
+        <v>0.3918009646033421</v>
       </c>
       <c r="P22" t="n">
-        <v>124.2832574784991</v>
+        <v>125.9147684638613</v>
       </c>
       <c r="Q22" t="n">
-        <v>198.6346827954593</v>
+        <v>200.2661937808216</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_1</t>
+          <t>model_4_5_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.943125565274722</v>
+        <v>0.9788486893791772</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5568860382596263</v>
+        <v>0.7977743754077551</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9924795805748698</v>
+        <v>0.8417383478767955</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8650663078312608</v>
+        <v>0.9491657781082603</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9820054004622629</v>
+        <v>0.9439914851221208</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3803196068906254</v>
+        <v>0.1414389115142719</v>
       </c>
       <c r="H23" t="n">
-        <v>2.963105102510061</v>
+        <v>1.352283682811723</v>
       </c>
       <c r="I23" t="n">
-        <v>0.05591084358059498</v>
+        <v>0.5107170709356954</v>
       </c>
       <c r="J23" t="n">
-        <v>0.166232769388371</v>
+        <v>0.3668663846274294</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1110717801035721</v>
+        <v>0.4387915926605335</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2188846239209773</v>
+        <v>0.2382593536405016</v>
       </c>
       <c r="M23" t="n">
-        <v>0.6167005812309775</v>
+        <v>0.3760836496236866</v>
       </c>
       <c r="N23" t="n">
-        <v>1.036891525227207</v>
+        <v>1.013719769051344</v>
       </c>
       <c r="O23" t="n">
-        <v>0.6429548017201735</v>
+        <v>0.3920943091886462</v>
       </c>
       <c r="P23" t="n">
-        <v>123.9334866179974</v>
+        <v>125.9117747517285</v>
       </c>
       <c r="Q23" t="n">
-        <v>198.2849119349577</v>
+        <v>200.2632000686888</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_0</t>
+          <t>model_4_5_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9315073718087702</v>
+        <v>0.9788169840997589</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5412701709411873</v>
+        <v>0.7975435372281436</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9943996055600592</v>
+        <v>0.8416089533049674</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8659723728387699</v>
+        <v>0.9488712447827814</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9832521116582646</v>
+        <v>0.9438291832408614</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4580105200943073</v>
+        <v>0.1416509248637315</v>
       </c>
       <c r="H24" t="n">
-        <v>3.06752847917292</v>
+        <v>1.353827298781696</v>
       </c>
       <c r="I24" t="n">
-        <v>0.04163634497230727</v>
+        <v>0.5111346327128687</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1651165344953408</v>
+        <v>0.368992007332953</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1033764473163898</v>
+        <v>0.4400631261251303</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1851743915258155</v>
+        <v>0.2383113004856041</v>
       </c>
       <c r="M24" t="n">
-        <v>0.6767647450143272</v>
+        <v>0.3763654140110798</v>
       </c>
       <c r="N24" t="n">
-        <v>1.044427650718636</v>
+        <v>1.013740334637994</v>
       </c>
       <c r="O24" t="n">
-        <v>0.7055760213057402</v>
+        <v>0.3923880688693432</v>
       </c>
       <c r="P24" t="n">
-        <v>123.561726250987</v>
+        <v>125.9087790470178</v>
       </c>
       <c r="Q24" t="n">
-        <v>197.9131515679473</v>
+        <v>200.2602043639781</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>model_4_5_23</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9787859436036935</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.7973323810201034</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8414906931672936</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9486076769211862</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9436834047714134</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.1418584928038495</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.355239301317146</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.5115162631982766</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.3708941548408535</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.4412052090195651</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.2383557126899259</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.3766410662737794</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.01376046901382</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.3926754562195449</v>
+      </c>
+      <c r="P25" t="n">
+        <v>125.9058504955939</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>200.2572758125541</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>model_4_5_24</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9787558725999155</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.797139595183637</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.8413822226547858</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9483712806551704</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.9435521823166506</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.1420595777445769</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.356528461093294</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.5118663021476222</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.3726002071856171</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.4422332546666197</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.2383825006255166</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.3769079167974281</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.013779974529785</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.392953667122442</v>
+      </c>
+      <c r="P26" t="n">
+        <v>125.9030174955814</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>200.2544428125416</v>
       </c>
     </row>
   </sheetData>
